--- a/Desarrollo/SGPI/0 Gestion de proyectos/SGPI_CR.xlsx
+++ b/Desarrollo/SGPI/0 Gestion de proyectos/SGPI_CR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\maestria\ciclo IV\gestion configuracion\Repositorio\GCS-JWD\Desarrollo\SGPI\0 Gestion de proyectos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C00AC52-4D16-4C45-A2C5-C454FE34D79B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C041DF19-650D-4960-A5FC-83E14E85E593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{135CDC7A-3672-49F7-8D88-F6F196223671}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="97">
   <si>
     <t xml:space="preserve">   Inicio</t>
   </si>
@@ -326,6 +326,9 @@
   </si>
   <si>
     <t>Caso Nomenclatura</t>
+  </si>
+  <si>
+    <t>S3</t>
   </si>
 </sst>
 </file>
@@ -512,7 +515,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -598,7 +601,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -616,6 +618,47 @@
   <dxfs count="6">
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFB1BBCC"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFB1BBCC"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFB1BBCC"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFB1BBCC"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -631,7 +674,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -704,47 +746,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FFB1BBCC"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFB1BBCC"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFB1BBCC"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFB1BBCC"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -760,6 +761,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -775,13 +777,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A95FAE14-4B2D-4A14-B82E-46F972FBF5E2}" name="Tabla22" displayName="Tabla22" ref="C3:G17" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A95FAE14-4B2D-4A14-B82E-46F972FBF5E2}" name="Tabla22" displayName="Tabla22" ref="C3:G17" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="C3:G17" xr:uid="{7D62B2B5-D687-4738-AF7B-2E927F90E834}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B70CFB5E-C084-47D0-9134-2EF656EA24EE}" name="Item" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{6BC0D0C4-E10A-4FD6-94C6-4AB7D80D0D66}" name="Sprint" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{B70CFB5E-C084-47D0-9134-2EF656EA24EE}" name="Item" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{6BC0D0C4-E10A-4FD6-94C6-4AB7D80D0D66}" name="Sprint" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{41609A6F-742E-44C5-86AD-0DDC7405F855}" name="Codigo"/>
-    <tableColumn id="3" xr3:uid="{F2D3F79A-0D67-445B-9DA7-D43F667DE7E7}" name="Nomenclatura" dataDxfId="1">
+    <tableColumn id="3" xr3:uid="{F2D3F79A-0D67-445B-9DA7-D43F667DE7E7}" name="Nomenclatura" dataDxfId="2">
       <calculatedColumnFormula>CONCATENATE(LineaBase!$B$3,"_",Tabla22[[#This Row],[Sprint]],"-",Nomenclatura!E4)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{9CED1855-1653-42A3-B1E3-3A8E9C6F24FC}" name="extencion"/>
@@ -791,10 +793,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7D62B2B5-D687-4738-AF7B-2E927F90E834}" name="Tabla2" displayName="Tabla2" ref="B3:F14" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7D62B2B5-D687-4738-AF7B-2E927F90E834}" name="Tabla2" displayName="Tabla2" ref="B3:F14" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="B3:F14" xr:uid="{7D62B2B5-D687-4738-AF7B-2E927F90E834}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{FCF73ED9-6468-4715-88EB-CE7515ED85D9}" name="Item" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{FCF73ED9-6468-4715-88EB-CE7515ED85D9}" name="Item" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{1DEA1486-2FD3-447C-A384-61D42A318733}" name="Codigo"/>
     <tableColumn id="3" xr3:uid="{02296F8D-04E9-4A5C-891E-082BCEFEE086}" name="Nomenclatura">
       <calculatedColumnFormula>CONCATENATE(LineaBase!$B$3,"_",item!C4)</calculatedColumnFormula>
@@ -3217,10 +3219,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1775C3-1767-4B96-BC0A-7BCCDF581491}">
-  <dimension ref="A3:G24"/>
+  <dimension ref="A3:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3233,25 +3235,25 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="37" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3668,16 +3670,100 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C22" s="2"/>
-      <c r="D22" s="11"/>
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="33" t="str">
+        <f>CONCATENATE(LineaBase!$B$3,"_",D22,"-",Nomenclatura!E22)</f>
+        <v>SGPI_S3-AP</v>
+      </c>
+      <c r="G22" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C23" s="10"/>
-      <c r="D23" s="35"/>
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" s="33" t="str">
+        <f>CONCATENATE(LineaBase!$B$3,"_",D23,"-",Nomenclatura!E23)</f>
+        <v>SGPI_S3-CO</v>
+      </c>
+      <c r="G23" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C24" s="2"/>
-      <c r="D24" s="11"/>
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" s="33" t="str">
+        <f>CONCATENATE(LineaBase!$B$3,"_",D24,"-",Nomenclatura!E24)</f>
+        <v>SGPI_S3-DD</v>
+      </c>
+      <c r="G24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="33" t="str">
+        <f>CONCATENATE(LineaBase!$B$3,"_",D25,"-",Nomenclatura!E25)</f>
+        <v>SGPI_S3-SB</v>
+      </c>
+      <c r="G25" t="s">
+        <v>81</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Desarrollo/SGPI/0 Gestion de proyectos/SGPI_CR.xlsx
+++ b/Desarrollo/SGPI/0 Gestion de proyectos/SGPI_CR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\maestria\ciclo IV\gestion configuracion\Repositorio\GCS-JWD\Desarrollo\SGPI\0 Gestion de proyectos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C041DF19-650D-4960-A5FC-83E14E85E593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE958C51-F1B2-498C-9B7C-83CA3F035E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{135CDC7A-3672-49F7-8D88-F6F196223671}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{135CDC7A-3672-49F7-8D88-F6F196223671}"/>
   </bookViews>
   <sheets>
     <sheet name="LineaBase" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="96">
   <si>
     <t xml:space="preserve">   Inicio</t>
   </si>
@@ -314,9 +314,6 @@
   </si>
   <si>
     <t>FW</t>
-  </si>
-  <si>
-    <t>exe</t>
   </si>
   <si>
     <t>S2</t>
@@ -407,7 +404,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -432,14 +429,8 @@
         <bgColor theme="4"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -488,25 +479,16 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
+        <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,7 +497,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -597,17 +579,18 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -615,7 +598,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
     <dxf>
       <font>
         <b val="0"/>
@@ -677,6 +660,58 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -696,12 +731,32 @@
         <scheme val="none"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
+        <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -721,28 +776,38 @@
         <scheme val="none"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
+        <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FFB1BBCC"/>
-        </left>
+        <left/>
         <right style="thin">
-          <color rgb="FFB1BBCC"/>
+          <color indexed="64"/>
         </right>
         <top style="thin">
-          <color rgb="FFB1BBCC"/>
+          <color indexed="64"/>
         </top>
         <bottom style="thin">
-          <color rgb="FFB1BBCC"/>
+          <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -762,6 +827,22 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -777,16 +858,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A95FAE14-4B2D-4A14-B82E-46F972FBF5E2}" name="Tabla22" displayName="Tabla22" ref="C3:G17" totalsRowShown="0" headerRowDxfId="5">
-  <autoFilter ref="C3:G17" xr:uid="{7D62B2B5-D687-4738-AF7B-2E927F90E834}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B70CFB5E-C084-47D0-9134-2EF656EA24EE}" name="Item" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{6BC0D0C4-E10A-4FD6-94C6-4AB7D80D0D66}" name="Sprint" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{41609A6F-742E-44C5-86AD-0DDC7405F855}" name="Codigo"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A95FAE14-4B2D-4A14-B82E-46F972FBF5E2}" name="Tabla22" displayName="Tabla22" ref="D3:G17" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="D3:G17" xr:uid="{7D62B2B5-D687-4738-AF7B-2E927F90E834}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{B70CFB5E-C084-47D0-9134-2EF656EA24EE}" name="Item" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{6BC0D0C4-E10A-4FD6-94C6-4AB7D80D0D66}" name="Sprint" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{41609A6F-742E-44C5-86AD-0DDC7405F855}" name="Codigo" dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{F2D3F79A-0D67-445B-9DA7-D43F667DE7E7}" name="Nomenclatura" dataDxfId="2">
-      <calculatedColumnFormula>CONCATENATE(LineaBase!$B$3,"_",Tabla22[[#This Row],[Sprint]],"-",Nomenclatura!E4)</calculatedColumnFormula>
+      <calculatedColumnFormula>CONCATENATE(LineaBase!$B$3,"_",Tabla22[[#This Row],[Sprint]],"-",Nomenclatura!F4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{9CED1855-1653-42A3-B1E3-3A8E9C6F24FC}" name="extencion"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1107,8 +1187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CB93090-8851-4ED4-B47C-9566D7FB69F4}">
   <dimension ref="A3:H80"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3219,550 +3299,481 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1775C3-1767-4B96-BC0A-7BCCDF581491}">
-  <dimension ref="A3:G25"/>
+  <dimension ref="B3:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.44140625" customWidth="1"/>
-    <col min="3" max="3" width="26.88671875" customWidth="1"/>
-    <col min="4" max="4" width="8.21875" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="26.88671875" customWidth="1"/>
+    <col min="5" max="5" width="8.21875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
     <col min="8" max="8" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+    <row r="3" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B3" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="D3" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="33">
+        <v>1</v>
+      </c>
+      <c r="C4" s="33">
+        <v>5</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="33" t="str">
+        <f>CONCATENATE(LineaBase!$B$3,"_",Tabla22[[#This Row],[Sprint]],"-",Nomenclatura!F4)</f>
+        <v>SGPI_S1-AP</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="33">
+        <v>2</v>
+      </c>
+      <c r="C5" s="33">
+        <v>5</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="33" t="str">
+        <f>CONCATENATE(LineaBase!$B$3,"_",Tabla22[[#This Row],[Sprint]],"-",Nomenclatura!F5)</f>
+        <v>SGPI_S1-CO</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="33">
+        <v>3</v>
+      </c>
+      <c r="C6" s="33">
+        <v>5</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="33" t="str">
+        <f>CONCATENATE(LineaBase!$B$3,"_",Tabla22[[#This Row],[Sprint]],"-",Nomenclatura!F6)</f>
+        <v>SGPI_S1-DD</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="33">
+        <v>4</v>
+      </c>
+      <c r="C7" s="33">
+        <v>2</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="34"/>
+      <c r="F7" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="33" t="str">
+        <f>CONCATENATE(LineaBase!$B$3,"_",Nomenclatura!F7)</f>
+        <v>SGPI_LP</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="33">
+        <v>5</v>
+      </c>
+      <c r="C8" s="33">
+        <v>2</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="34"/>
+      <c r="F8" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="33" t="str">
+        <f>CONCATENATE(LineaBase!$B$3,"_",Nomenclatura!F8)</f>
+        <v>SGPI_PD</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="33">
+        <v>6</v>
+      </c>
+      <c r="C9" s="33">
+        <v>2</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="34"/>
+      <c r="F9" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="33" t="str">
+        <f>CONCATENATE(LineaBase!$B$3,"_",Nomenclatura!F9)</f>
+        <v>SGPI_TP</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="33">
+        <v>7</v>
+      </c>
+      <c r="C10" s="33">
+        <v>2</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="34"/>
+      <c r="F10" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="33" t="str">
+        <f>CONCATENATE(LineaBase!$B$3,"_",Nomenclatura!F10)</f>
+        <v>SGPI_PP</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="33">
+        <v>8</v>
+      </c>
+      <c r="C11" s="33">
+        <v>2</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="34"/>
+      <c r="F11" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="33" t="str">
+        <f>CONCATENATE(LineaBase!$B$3,"_",Nomenclatura!F11)</f>
+        <v>SGPI_PB</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="33">
+        <v>9</v>
+      </c>
+      <c r="C12" s="33">
+        <v>2</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="34"/>
+      <c r="F12" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="33" t="str">
+        <f>CONCATENATE(LineaBase!$B$3,"_",Nomenclatura!F12)</f>
+        <v>SGPI_PC</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="33">
+        <v>10</v>
+      </c>
+      <c r="C13" s="33">
+        <v>5</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="33" t="str">
+        <f>CONCATENATE(LineaBase!$B$3,"_",Tabla22[[#This Row],[Sprint]],"-",Nomenclatura!F13)</f>
+        <v>SGPI_S1-SB</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="33">
+        <v>11</v>
+      </c>
+      <c r="C14" s="33">
+        <v>2</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="34"/>
+      <c r="F14" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="33" t="str">
+        <f>CONCATENATE(LineaBase!$B$3,"_",Nomenclatura!F14)</f>
+        <v>SGPI_CR</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="33">
+        <v>12</v>
+      </c>
+      <c r="C15" s="33">
+        <v>2</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="34"/>
+      <c r="F15" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" s="33" t="str">
+        <f>CONCATENATE(LineaBase!$B$3,"_",Nomenclatura!F15)</f>
+        <v>SGPI_ID</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="33">
+        <v>13</v>
+      </c>
+      <c r="C16" s="33">
+        <v>2</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="34"/>
+      <c r="F16" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="33" t="str">
+        <f>CONCATENATE(LineaBase!$B$3,"_",Nomenclatura!F16)</f>
+        <v>SGPI_FW</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="33">
+        <v>14</v>
+      </c>
+      <c r="C17" s="33">
+        <v>1</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="34"/>
+      <c r="F17" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="33" t="str">
+        <f>CONCATENATE(Nomenclatura!F17)</f>
+        <v>ED</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="33">
+        <v>15</v>
+      </c>
+      <c r="C18" s="33">
+        <v>5</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="35" t="str">
+        <f>CONCATENATE(LineaBase!$B$3,"_",E18,"-",Nomenclatura!F18)</f>
+        <v>SGPI_S2-AP</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="33">
+        <v>16</v>
+      </c>
+      <c r="C19" s="33">
+        <v>5</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="35" t="str">
+        <f>CONCATENATE(LineaBase!$B$3,"_",E19,"-",Nomenclatura!F19)</f>
+        <v>SGPI_S2-CO</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="33">
+        <v>17</v>
+      </c>
+      <c r="C20" s="33">
+        <v>5</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="35" t="str">
+        <f>CONCATENATE(LineaBase!$B$3,"_",E20,"-",Nomenclatura!F20)</f>
+        <v>SGPI_S2-DD</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="33">
+        <v>18</v>
+      </c>
+      <c r="C21" s="33">
+        <v>5</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="35" t="str">
+        <f>CONCATENATE(LineaBase!$B$3,"_",E21,"-",Nomenclatura!F21)</f>
+        <v>SGPI_S1-SB</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="33">
+        <v>19</v>
+      </c>
+      <c r="C22" s="33">
+        <v>5</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
+      <c r="F22" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" s="35" t="str">
+        <f>CONCATENATE(LineaBase!$B$3,"_",E22,"-",Nomenclatura!F22)</f>
+        <v>SGPI_S3-AP</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="33">
+        <v>20</v>
+      </c>
+      <c r="C23" s="33">
         <v>5</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="E4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" t="str">
-        <f>CONCATENATE(LineaBase!$B$3,"_",Tabla22[[#This Row],[Sprint]],"-",Nomenclatura!E4)</f>
-        <v>SGPI_S1-AP</v>
-      </c>
-      <c r="G4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5">
+      <c r="D23" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" s="35" t="str">
+        <f>CONCATENATE(LineaBase!$B$3,"_",E23,"-",Nomenclatura!F23)</f>
+        <v>SGPI_S3-CO</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="33">
+        <v>21</v>
+      </c>
+      <c r="C24" s="33">
         <v>5</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="E5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" t="str">
-        <f>CONCATENATE(LineaBase!$B$3,"_",Tabla22[[#This Row],[Sprint]],"-",Nomenclatura!E5)</f>
-        <v>SGPI_S1-CO</v>
-      </c>
-      <c r="G5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6">
+      <c r="D24" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" s="35" t="str">
+        <f>CONCATENATE(LineaBase!$B$3,"_",E24,"-",Nomenclatura!F24)</f>
+        <v>SGPI_S3-DD</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="33">
+        <v>22</v>
+      </c>
+      <c r="C25" s="33">
         <v>5</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="E6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" t="str">
-        <f>CONCATENATE(LineaBase!$B$3,"_",Tabla22[[#This Row],[Sprint]],"-",Nomenclatura!E6)</f>
-        <v>SGPI_S1-DD</v>
-      </c>
-      <c r="G6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="34"/>
-      <c r="E7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" t="str">
-        <f>CONCATENATE(LineaBase!$B$3,"_",Nomenclatura!E7)</f>
-        <v>SGPI_LP</v>
-      </c>
-      <c r="G7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="34"/>
-      <c r="E8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" t="str">
-        <f>CONCATENATE(LineaBase!$B$3,"_",Nomenclatura!E8)</f>
-        <v>SGPI_PD</v>
-      </c>
-      <c r="G8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="34"/>
-      <c r="E9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" t="str">
-        <f>CONCATENATE(LineaBase!$B$3,"_",Nomenclatura!E9)</f>
-        <v>SGPI_TP</v>
-      </c>
-      <c r="G9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="34"/>
-      <c r="E10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" t="str">
-        <f>CONCATENATE(LineaBase!$B$3,"_",Nomenclatura!E10)</f>
-        <v>SGPI_PP</v>
-      </c>
-      <c r="G10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="34"/>
-      <c r="E11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" t="str">
-        <f>CONCATENATE(LineaBase!$B$3,"_",Nomenclatura!E11)</f>
-        <v>SGPI_PB</v>
-      </c>
-      <c r="G11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>9</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="34"/>
-      <c r="E12" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" t="str">
-        <f>CONCATENATE(LineaBase!$B$3,"_",Nomenclatura!E12)</f>
-        <v>SGPI_PC</v>
-      </c>
-      <c r="G12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="B13">
-        <v>5</v>
-      </c>
-      <c r="C13" s="12" t="s">
+      <c r="D25" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="E25" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="F25" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="F13" t="str">
-        <f>CONCATENATE(LineaBase!$B$3,"_",Tabla22[[#This Row],[Sprint]],"-",Nomenclatura!E13)</f>
-        <v>SGPI_S1-SB</v>
-      </c>
-      <c r="G13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>11</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" t="str">
-        <f>CONCATENATE(LineaBase!$B$3,"_",Nomenclatura!E14)</f>
-        <v>SGPI_CR</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>12</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="F15" t="str">
-        <f>CONCATENATE(LineaBase!$B$3,"_",Nomenclatura!E15)</f>
-        <v>SGPI_ID</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>13</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D16" s="34"/>
-      <c r="E16" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="F16" t="str">
-        <f>CONCATENATE(LineaBase!$B$3,"_",Nomenclatura!E16)</f>
-        <v>SGPI_FW</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>14</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="D17" s="34"/>
-      <c r="E17" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="F17" t="str">
-        <f>CONCATENATE(Nomenclatura!E17)</f>
-        <v>ED</v>
-      </c>
-      <c r="G17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>15</v>
-      </c>
-      <c r="B18">
-        <v>5</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="E18" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" s="33" t="str">
-        <f>CONCATENATE(LineaBase!$B$3,"_",D18,"-",Nomenclatura!E18)</f>
-        <v>SGPI_S2-AP</v>
-      </c>
-      <c r="G18" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>16</v>
-      </c>
-      <c r="B19">
-        <v>5</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="E19" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" s="33" t="str">
-        <f>CONCATENATE(LineaBase!$B$3,"_",D19,"-",Nomenclatura!E19)</f>
-        <v>SGPI_S2-CO</v>
-      </c>
-      <c r="G19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>17</v>
-      </c>
-      <c r="B20">
-        <v>5</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="E20" t="s">
-        <v>54</v>
-      </c>
-      <c r="F20" s="33" t="str">
-        <f>CONCATENATE(LineaBase!$B$3,"_",D20,"-",Nomenclatura!E20)</f>
-        <v>SGPI_S2-DD</v>
-      </c>
-      <c r="G20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>18</v>
-      </c>
-      <c r="B21">
-        <v>5</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="E21" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" s="33" t="str">
-        <f>CONCATENATE(LineaBase!$B$3,"_",D21,"-",Nomenclatura!E21)</f>
-        <v>SGPI_S1-SB</v>
-      </c>
-      <c r="G21" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>19</v>
-      </c>
-      <c r="B22">
-        <v>5</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="E22" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" s="33" t="str">
-        <f>CONCATENATE(LineaBase!$B$3,"_",D22,"-",Nomenclatura!E22)</f>
-        <v>SGPI_S3-AP</v>
-      </c>
-      <c r="G22" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>20</v>
-      </c>
-      <c r="B23">
-        <v>5</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="E23" t="s">
-        <v>53</v>
-      </c>
-      <c r="F23" s="33" t="str">
-        <f>CONCATENATE(LineaBase!$B$3,"_",D23,"-",Nomenclatura!E23)</f>
-        <v>SGPI_S3-CO</v>
-      </c>
-      <c r="G23" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>21</v>
-      </c>
-      <c r="B24">
-        <v>5</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="E24" t="s">
-        <v>54</v>
-      </c>
-      <c r="F24" s="33" t="str">
-        <f>CONCATENATE(LineaBase!$B$3,"_",D24,"-",Nomenclatura!E24)</f>
-        <v>SGPI_S3-DD</v>
-      </c>
-      <c r="G24" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>22</v>
-      </c>
-      <c r="B25">
-        <v>5</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="E25" t="s">
-        <v>52</v>
-      </c>
-      <c r="F25" s="33" t="str">
-        <f>CONCATENATE(LineaBase!$B$3,"_",D25,"-",Nomenclatura!E25)</f>
+      <c r="G25" s="35" t="str">
+        <f>CONCATENATE(LineaBase!$B$3,"_",E25,"-",Nomenclatura!F25)</f>
         <v>SGPI_S3-SB</v>
-      </c>
-      <c r="G25" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -3779,7 +3790,7 @@
   <dimension ref="A3:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:H14"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Desarrollo/SGPI/0 Gestion de proyectos/SGPI_CR.xlsx
+++ b/Desarrollo/SGPI/0 Gestion de proyectos/SGPI_CR.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\maestria\ciclo IV\gestion configuracion\Repositorio\GCS-JWD\Desarrollo\SGPI\0 Gestion de proyectos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F087E556-4DF0-42B6-B5DC-2907934D16C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF9F88F-4486-4248-8DA9-3A06196B2653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1057,8 +1057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Desarrollo/SGPI/0 Gestion de proyectos/SGPI_CR.xlsx
+++ b/Desarrollo/SGPI/0 Gestion de proyectos/SGPI_CR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\maestria\ciclo IV\gestion configuracion\Repositorio\GCS-JWD\Desarrollo\SGPI\0 Gestion de proyectos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF9F88F-4486-4248-8DA9-3A06196B2653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6316A45C-AD84-4F22-B928-E5965F940F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1057,8 +1057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
